--- a/xlsx/文艺复兴_intext.xlsx
+++ b/xlsx/文艺复兴_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="847">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="836">
   <si>
     <t>文艺复兴</t>
   </si>
@@ -29,7 +29,7 @@
     <t>12世纪的文艺复兴</t>
   </si>
   <si>
-    <t>政策_政策_政治學_文艺复兴</t>
+    <t>政策_政策_政治学_文艺复兴</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E6%B4%9B%E6%9E%97%E6%96%87%E8%89%BA%E5%A4%8D%E5%85%B4</t>
@@ -53,7 +53,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%A1%9B%E5%83%8F</t>
   </si>
   <si>
-    <t>大衛像</t>
+    <t>大卫像</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%9B%E7%BD%97%E4%BC%A6%E8%90%A8</t>
@@ -71,7 +71,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%84%8F%E5%A4%A7%E5%88%A9%E8%AA%9E</t>
   </si>
   <si>
-    <t>意大利語</t>
+    <t>意大利语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%87%E5%8C%96%E8%BF%90%E5%8A%A8</t>
@@ -95,7 +95,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%A9%E5%A4%A7%E5%88%A9%E6%96%87%E8%97%9D%E5%BE%A9%E8%88%88</t>
   </si>
   <si>
-    <t>義大利文藝復興</t>
+    <t>义大利文艺复兴</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E6%B4%B2</t>
@@ -215,7 +215,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%87%E8%97%9D%E5%BE%A9%E8%88%88%E6%99%82%E6%9C%9F%E7%9A%84%E9%9F%B3%E6%A8%82</t>
   </si>
   <si>
-    <t>文藝復興時期的音樂</t>
+    <t>文艺复兴时期的音乐</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Renaissance_philosophy</t>
@@ -263,7 +263,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E6%96%B9%E6%96%87%E8%97%9D%E5%BE%A9%E8%88%88</t>
   </si>
   <si>
-    <t>北方文藝復興</t>
+    <t>北方文艺复兴</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Renaissance_in_Poland</t>
@@ -461,7 +461,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E6%89%98%C2%B7%E8%BF%AA%C2%B7%E9%82%A6%E5%A4%9A%E7%B4%8D</t>
   </si>
   <si>
-    <t>喬托·迪·邦多納</t>
+    <t>乔托·迪·邦多纳</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E4%BC%A6%E4%BD%90%C2%B7%E5%90%89%E8%B4%9D%E5%B0%94%E8%92%82</t>
@@ -515,7 +515,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E7%84%A6%C2%B7%E5%B8%83%E6%8B%89%E5%96%AC%E5%88%A9%E5%B0%BC</t>
   </si>
   <si>
-    <t>波焦·布拉喬利尼</t>
+    <t>波焦·布拉乔利尼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%92%82%E6%89%98%C2%B7%E6%9D%8E%E7%BB%B4</t>
@@ -527,7 +527,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E5%85%A7%E5%8D%A1</t>
   </si>
   <si>
-    <t>塞內卡</t>
+    <t>塞内卡</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Demetrius_Chalcondyles</t>
@@ -623,7 +623,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BD%9B%E7%BE%85%E5%80%AB%E6%96%AF</t>
   </si>
   <si>
-    <t>佛羅倫斯</t>
+    <t>佛罗伦斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E4%BC%A6%E4%BD%90%E4%B8%80%E4%B8%96%C2%B7%E5%BE%B7%C2%B7%E7%BE%8E%E7%AC%AC%E5%A5%87</t>
@@ -635,19 +635,19 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E4%B8%96%E7%B4%80%E5%BE%8C%E6%9C%9F</t>
   </si>
   <si>
-    <t>中世紀後期</t>
+    <t>中世纪后期</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E5%AF%A6%E9%AB%94</t>
   </si>
   <si>
-    <t>政治實體</t>
+    <t>政治实体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%BF%E6%B3%A2%E9%87%8C%E7%8E%8B%E5%9C%8B</t>
   </si>
   <si>
-    <t>拿波里王國</t>
+    <t>拿波里王国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%9B%E7%BD%97%E4%BC%A6%E8%90%A8%E5%85%B1%E5%92%8C%E5%9B%BD</t>
@@ -701,7 +701,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E6%B3%B0%E5%A5%A7%C2%B7%E5%B8%95%E7%88%BE%E7%B1%B3%E8%80%B6%E9%87%8C</t>
   </si>
   <si>
-    <t>馬泰奧·帕爾米耶里</t>
+    <t>马泰奥·帕尔米耶里</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E5%92%8C%E5%88%B6</t>
@@ -743,7 +743,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A6%81%E6%85%BE%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>禁慾主義</t>
+    <t>禁慾主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%99%E4%BC%9A</t>
@@ -755,7 +755,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E5%AD%B8</t>
   </si>
   <si>
-    <t>神學</t>
+    <t>神学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E6%9B%B2</t>
@@ -773,7 +773,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%81%E6%97%A5%E8%AB%87</t>
   </si>
   <si>
-    <t>十日談</t>
+    <t>十日谈</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%9B%E4%B8%BB%E8%AE%BA</t>
@@ -821,13 +821,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E7%B6%93</t>
   </si>
   <si>
-    <t>聖經</t>
+    <t>圣经</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%97%E6%95%99%E6%94%B9%E9%9D%A9%E9%81%8B%E5%8B%95</t>
   </si>
   <si>
-    <t>宗教改革運動</t>
+    <t>宗教改革运动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%99%E8%82%B2</t>
@@ -839,19 +839,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E8%98%AD</t>
   </si>
   <si>
-    <t>波蘭</t>
+    <t>波兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E8%8C%B2%E5%8D%97</t>
   </si>
   <si>
-    <t>波茲南</t>
+    <t>波兹南</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E6%96%87%E5%AD%B8</t>
   </si>
   <si>
-    <t>天文學</t>
+    <t>天文学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E5%8F%A4%E6%8B%89%C2%B7%E5%93%A5%E7%99%BD%E5%B0%BC</t>
@@ -881,7 +881,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E5%BF%83%E8%AA%AA</t>
   </si>
   <si>
-    <t>日心說</t>
+    <t>日心说</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E9%B2%81%E8%AF%BA</t>
@@ -899,25 +899,25 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A9%BA%E9%96%93</t>
   </si>
   <si>
-    <t>空間</t>
+    <t>空间</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%82%E9%96%93</t>
   </si>
   <si>
-    <t>時間</t>
+    <t>时间</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E9%99%BD</t>
   </si>
   <si>
-    <t>太陽</t>
+    <t>太阳</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E9%99%BD%E7%B3%BB</t>
   </si>
   <si>
-    <t>太陽系</t>
+    <t>太阳系</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%BD%E5%88%A9%E7%95%A5%C2%B7%E4%BC%BD%E5%88%A9%E8%8E%B1</t>
@@ -935,7 +935,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E7%BF%B0%E5%85%A7%E6%96%AF%C2%B7%E5%85%8B%E5%8D%9C%E5%8B%92</t>
   </si>
   <si>
-    <t>約翰內斯·克卜勒</t>
+    <t>约翰内斯·克卜勒</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E8%B0%B7%C2%B7%E5%B8%83%E6%8B%89%E8%B5%AB</t>
@@ -953,19 +953,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A9%A2%E5%9C%93%E5%BD%A2</t>
   </si>
   <si>
-    <t>橢圓形</t>
+    <t>椭圆形</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B8%E5%AD%B8</t>
   </si>
   <si>
-    <t>數學</t>
+    <t>数学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BB%A3%E6%95%B8</t>
   </si>
   <si>
-    <t>代數</t>
+    <t>代数</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E5%B0%94%E8%BE%BE%E8%AF%BA</t>
@@ -995,19 +995,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%99%9B%E6%95%B8</t>
   </si>
   <si>
-    <t>虛數</t>
+    <t>虚数</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B</t>
   </si>
   <si>
-    <t>法國</t>
+    <t>法国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9F%8B%E9%81%94</t>
   </si>
   <si>
-    <t>韋達</t>
+    <t>韦达</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AD%97%E6%AF%8D</t>
@@ -1019,19 +1019,19 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%82%E6%95%B8</t>
   </si>
   <si>
-    <t>係數</t>
+    <t>系数</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9F%8B%E9%81%94%E5%AE%9A%E7%90%86</t>
   </si>
   <si>
-    <t>韋達定理</t>
+    <t>韦达定理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E8%A7%92%E5%AD%B8</t>
   </si>
   <si>
-    <t>三角學</t>
+    <t>三角学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%B7%E6%A0%BC%E8%92%99%E5%A1%94%E5%8A%AA%E6%96%AF</t>
@@ -1043,13 +1043,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E8%A7%92%E5%87%BD%E6%95%B8</t>
   </si>
   <si>
-    <t>三角函數</t>
+    <t>三角函数</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%A9%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>物理學</t>
+    <t>物理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%89%98%E9%87%8C%E6%8B%86%E5%88%A9</t>
@@ -1067,43 +1067,43 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E4%BC%AF%E7%89%B9%C2%B7%E6%B3%A2%E7%BE%A9%E8%80%B3</t>
   </si>
   <si>
-    <t>羅伯特·波義耳</t>
+    <t>罗伯特·波义耳</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>生理學</t>
+    <t>生理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%86%AB%E5%AD%B8</t>
   </si>
   <si>
-    <t>醫學</t>
+    <t>医学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E5%88%A9%E6%99%82</t>
   </si>
   <si>
-    <t>比利時</t>
+    <t>比利时</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%A1%9E%E5%88%A9%E4%BA%9E%E6%96%AF</t>
   </si>
   <si>
-    <t>維塞利亞斯</t>
+    <t>维塞利亚斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%93%8B%E5%80%AB</t>
   </si>
   <si>
-    <t>蓋倫</t>
+    <t>盖伦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E4%BD%8D%E4%B8%80%E9%AB%94_(%E6%B6%88%E6%AD%A7%E7%BE%A9)</t>
   </si>
   <si>
-    <t>三位一體 (消歧義)</t>
+    <t>三位一体 (消歧义)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99</t>
@@ -1115,7 +1115,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E7%88%BE%E7%B6%AD%E7%89%B9</t>
   </si>
   <si>
-    <t>塞爾維特</t>
+    <t>塞尔维特</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%80%E6%B6%B2</t>
@@ -1139,7 +1139,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B</t>
   </si>
   <si>
-    <t>英國</t>
+    <t>英国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%BB%89%C2%B7%E5%93%88%E7%BB%B4</t>
@@ -1157,7 +1157,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E7%90%86%E5%A4%A7%E7%99%BC%E7%8F%BE</t>
   </si>
   <si>
-    <t>地理大發現</t>
+    <t>地理大发现</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%88%AA%E6%B5%B7</t>
@@ -1175,19 +1175,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E9%87%8C%E6%96%AF%E5%A4%9A%E7%A6%8F%C2%B7%E5%93%A5%E5%80%AB%E5%B8%83</t>
   </si>
   <si>
-    <t>克里斯多福·哥倫布</t>
+    <t>克里斯多福·哥伦布</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%90%E8%BF%AA%E5%8D%97%C2%B7%E9%BA%A5%E5%93%B2%E5%80%AB</t>
   </si>
   <si>
-    <t>斐迪南·麥哲倫</t>
+    <t>斐迪南·麦哲伦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>地理學</t>
+    <t>地理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E5%9C%86%E8%AF%B4</t>
@@ -1205,25 +1205,22 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E4%B8%81%E8%AA%9E</t>
   </si>
   <si>
-    <t>拉丁語</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E7%9C%BE%E6%96%87%E5%AD%B8</t>
   </si>
   <si>
-    <t>大眾文學</t>
+    <t>大众文学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E8%AA%AA</t>
   </si>
   <si>
-    <t>小說</t>
+    <t>小说</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A9%A9</t>
   </si>
   <si>
-    <t>詩</t>
+    <t>诗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%A3%E6%96%87</t>
@@ -1235,7 +1232,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%88%B2%E5%8A%87</t>
   </si>
   <si>
-    <t>戲劇</t>
+    <t>戏剧</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%87%E8%89%BA%E5%A4%8D%E5%85%B4%E4%B8%89%E6%9D%B0</t>
@@ -1247,7 +1244,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BD%86%E4%B8%81%C2%B7%E4%BA%9E%E5%88%A9%E5%9F%BA%E5%88%A9</t>
   </si>
   <si>
-    <t>但丁·亞利基利</t>
+    <t>但丁·亚利基利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E7%94%9F</t>
@@ -1259,7 +1256,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E6%96%87%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>人文主義</t>
+    <t>人文主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%81%E5%9B%9B%E8%A1%8C%E8%AF%97</t>
@@ -1271,13 +1268,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%83%E6%98%9F%E8%A9%A9%E7%A4%BE</t>
   </si>
   <si>
-    <t>七星詩社</t>
+    <t>七星诗社</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BE%8D%E6%B2%99%E5%8D%80</t>
   </si>
   <si>
-    <t>龍沙區</t>
+    <t>龙沙区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%89%98%E9%A9%AC%E6%96%AF%C2%B7%E8%8E%AB%E5%B0%94</t>
@@ -1289,25 +1286,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%BB%89%C2%B7%E8%8E%8E%E5%A3%AB%E6%AF%94%E4%BA%9E</t>
   </si>
   <si>
-    <t>威廉·莎士比亞</t>
+    <t>威廉·莎士比亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A9%BA%E6%83%B3%E7%A4%BE%E6%9C%83%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>空想社會主義</t>
+    <t>空想社会主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%83%8F%E6%89%98%E9%82%A6_(%E6%9B%B8)</t>
   </si>
   <si>
-    <t>烏托邦 (書)</t>
+    <t>乌托邦 (书)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E9%A6%AC</t>
   </si>
   <si>
-    <t>荷馬</t>
+    <t>荷马</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%8C%E5%BE%B7</t>
@@ -1319,7 +1316,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B1%B3%E6%A0%BC%E7%88%BE%C2%B7%E5%BE%B7%C2%B7%E5%A1%9E%E8%90%AC%E6%8F%90%E6%96%AF</t>
   </si>
   <si>
-    <t>米格爾·德·塞萬提斯</t>
+    <t>米格尔·德·塞万提斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%B4%E5%8A%A0</t>
@@ -1331,7 +1328,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%94%90%E5%90%89%E8%A8%B6%E5%BE%B7</t>
   </si>
   <si>
-    <t>唐吉訶德</t>
+    <t>唐吉诃德</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8E%86%E5%8F%B2%E5%89%A7</t>
@@ -1343,13 +1340,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E8%A9%B1%E5%8A%87</t>
   </si>
   <si>
-    <t>神話劇</t>
+    <t>神话剧</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%87%E8%97%9D%E5%BE%A9%E8%88%88%E7%B9%AA%E7%95%AB</t>
   </si>
   <si>
-    <t>文藝復興繪畫</t>
+    <t>文艺复兴绘画</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%82%A3%E4%B8%8D%E5%8B%92%E6%96%AF</t>
@@ -1391,7 +1388,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E8%96%A9%E5%85%B6%E5%A5%A7</t>
   </si>
   <si>
-    <t>馬薩其奧</t>
+    <t>马萨其奥</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8F%B2%E5%88%A9%E6%99%AE%C2%B7%E5%88%A9%E7%9A%AE</t>
@@ -1409,7 +1406,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%89%E7%88%BE%E8%98%AD%E9%81%94%E7%B4%84</t>
   </si>
   <si>
-    <t>吉爾蘭達約</t>
+    <t>吉尔兰达约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%80%E5%90%8E%E7%9A%84%E6%99%9A%E9%A4%90</t>
@@ -1433,7 +1430,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BA%AB%E8%8E%8E%E5%9F%8E%E5%A0%A1</t>
   </si>
   <si>
-    <t>溫莎城堡</t>
+    <t>温莎城堡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E6%96%AF%E5%BB%B7%E7%A4%BC%E6%8B%9C%E5%A0%82</t>
@@ -1475,7 +1472,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E7%B4%8D%E6%96%AF%E7%9A%84%E8%AA%95%E7%94%9F</t>
   </si>
   <si>
-    <t>維納斯的誕生</t>
+    <t>维纳斯的诞生</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AF%BD%E8%B0%A4</t>
@@ -1505,13 +1502,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E5%BE%97</t>
   </si>
   <si>
-    <t>羅得</t>
+    <t>罗得</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%87%E8%97%9D%E5%BE%A9%E8%88%88%E9%9F%B3%E6%A8%82</t>
   </si>
   <si>
-    <t>文藝復興音樂</t>
+    <t>文艺复兴音乐</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%95%E8%8E%B1%E6%96%AF%E7%89%B9%E9%87%8C%E7%BA%B3</t>
@@ -1553,9 +1550,6 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%87%E8%97%9D%E5%BE%A9%E8%88%88%E5%BB%BA%E7%AF%89</t>
   </si>
   <si>
-    <t>文藝復興建築</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AF%97%E6%AD%8C</t>
   </si>
   <si>
@@ -1577,9 +1571,6 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E6%96%90%E7%88%BE</t>
   </si>
   <si>
-    <t>拉斐爾</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%AF%E9%B2%81%E4%B9%83%E5%88%97%E6%96%AF%E5%9F%BA</t>
   </si>
   <si>
@@ -1601,21 +1592,12 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E8%AF%B4</t>
   </si>
   <si>
-    <t>小说</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%8F%E5%89%A7</t>
   </si>
   <si>
-    <t>戏剧</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B1%B3%E6%A0%BC%E5%B0%94%C2%B7%E5%BE%B7%C2%B7%E5%A1%9E%E4%B8%87%E6%8F%90%E6%96%AF</t>
   </si>
   <si>
-    <t>米格尔·德·塞万提斯</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E4%BD%A9%C2%B7%E5%BE%B7%C2%B7%E7%BB%B4%E5%8A%A0</t>
   </si>
   <si>
@@ -1625,31 +1607,31 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E8%A7%80</t>
   </si>
   <si>
-    <t>世界觀</t>
+    <t>世界观</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%96%99%E8%B2%BF%E6%98%93</t>
   </si>
   <si>
-    <t>香料貿易</t>
+    <t>香料贸易</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%88%E6%A2%85%E5%A3%AB</t>
   </si>
   <si>
-    <t>賈梅士</t>
+    <t>贾梅士</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B2%E8%A9%A9</t>
   </si>
   <si>
-    <t>史詩</t>
+    <t>史诗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B7%AF%E6%BF%9F%E5%A1%94%E5%B0%BC%E4%BA%9E%E4%BA%BA%E4%B9%8B%E6%AD%8C</t>
   </si>
   <si>
-    <t>路濟塔尼亞人之歌</t>
+    <t>路济塔尼亚人之歌</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%9C%E6%B0%91%E8%B5%B7%E4%B9%89</t>
@@ -1661,7 +1643,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AB%B7%E5%88%BA%E6%96%87%E5%AD%B8</t>
   </si>
   <si>
-    <t>諷刺文學</t>
+    <t>讽刺文学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%91%E6%98%8E</t>
@@ -1673,7 +1655,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E4%B8%81%C2%B7%E8%B7%AF%E5%BE%B7</t>
   </si>
   <si>
-    <t>馬丁·路德</t>
+    <t>马丁·路德</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%9C%E5%8B%92</t>
@@ -1715,9 +1697,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%BB%89%C2%B7%E8%8E%8E%E5%A3%AB%E6%AF%94%E4%BA%9A</t>
   </si>
   <si>
-    <t>威廉·莎士比亚</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E5%85%B0%E5%BE%B7</t>
   </si>
   <si>
@@ -1727,7 +1706,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E8%98%AD</t>
   </si>
   <si>
-    <t>荷蘭</t>
+    <t>荷兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E5%B8%83%E6%96%AF%E5%A0%A1%E7%8E%8B%E6%9C%9D</t>
@@ -1739,7 +1718,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%AB%E5%8D%81%E5%B9%B4%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>八十年戰爭</t>
+    <t>八十年战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%80%B6%E7%BD%97%E5%B0%BC%E7%B1%B3%E6%96%AF%C2%B7%E5%8D%9A%E6%96%AF</t>
@@ -1751,15 +1730,9 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%85%B0</t>
   </si>
   <si>
-    <t>波兰</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E5%BF%83%E8%AF%B4</t>
   </si>
   <si>
-    <t>日心说</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%98%8E%E6%9C%9D</t>
   </si>
   <si>
@@ -1769,7 +1742,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%95%9F%E8%92%99%E6%99%82%E4%BB%A3</t>
   </si>
   <si>
-    <t>啟蒙時代</t>
+    <t>启蒙时代</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BB%91%E6%9A%97%E6%97%B6%E4%BB%A3</t>
@@ -1787,7 +1760,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E7%94%A2%E9%9A%8E%E7%B4%9A</t>
   </si>
   <si>
-    <t>資產階級</t>
+    <t>资产阶级</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%84%92%E5%8B%92%C2%B7%E7%B1%B3%E4%BB%80%E8%8E%B1</t>
@@ -1871,7 +1844,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E6%B4%9B%E6%9E%97%E8%97%9D%E8%A1%93</t>
   </si>
   <si>
-    <t>卡洛林藝術</t>
+    <t>卡洛林艺术</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Ottonian_art</t>
@@ -1895,19 +1868,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E5%93%A5%E7%89%B9%E5%BC%8F%E8%97%9D%E8%A1%93</t>
   </si>
   <si>
-    <t>國際哥特式藝術</t>
+    <t>国际哥特式艺术</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A9%E6%9C%9F%E5%B0%BC%E5%BE%B7%E8%98%AD%E7%B9%AA%E7%95%AB</t>
   </si>
   <si>
-    <t>早期尼德蘭繪畫</t>
+    <t>早期尼德兰绘画</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%87%E8%97%9D%E5%BE%A9%E8%88%88%E5%85%A8%E7%9B%9B%E6%9C%9F</t>
   </si>
   <si>
-    <t>文藝復興全盛期</t>
+    <t>文艺复兴全盛期</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A3%8E%E6%A0%BC%E4%B8%BB%E4%B9%89</t>
@@ -1925,19 +1898,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E6%8B%89%E7%93%A6%E5%96%AC%E4%B8%BB%E7%BE%A9%E8%80%85</t>
   </si>
   <si>
-    <t>卡拉瓦喬主義者</t>
+    <t>卡拉瓦乔主义者</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%85%B8%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>古典主義</t>
+    <t>古典主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E8%98%AD%E9%BB%83%E9%87%91%E6%99%82%E4%BB%A3%E7%B9%AA%E7%95%AB</t>
   </si>
   <si>
-    <t>荷蘭黃金時代繪畫</t>
+    <t>荷兰黄金时代绘画</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E5%8F%AF%E5%8F%AF</t>
@@ -1973,7 +1946,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%95%A2%E5%BE%B7%E9%BA%A5%E9%9B%85</t>
   </si>
   <si>
-    <t>畢德麥雅</t>
+    <t>毕德麦雅</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Gr%C3%BCnderzeit</t>
@@ -2009,7 +1982,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A0%B9%E5%BB%A2%E4%B8%BB%E7%BE%A9%E9%81%8B%E5%8B%95</t>
   </si>
   <si>
-    <t>頹廢主義運動</t>
+    <t>颓废主义运动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A1%E5%9B%9E%E5%B1%95%E8%A7%88%E7%94%BB%E6%B4%BE</t>
@@ -2051,7 +2024,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%88%86%E9%9A%94%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>分隔主義</t>
+    <t>分隔主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%82%A3%E6%AF%94%E6%B4%BE</t>
@@ -2063,7 +2036,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%9C%E5%90%88%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>綜合主義</t>
+    <t>综合主义</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Kalighat_painting</t>
@@ -2105,13 +2078,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E8%B2%BB%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>奧費主義</t>
+    <t>奥费主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%94%E7%B2%B9%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>純粹主義</t>
+    <t>纯粹主义</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Synchromism</t>
@@ -2135,7 +2108,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8A%BD%E8%B1%A1%E8%A1%A8%E7%8F%BE%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>抽象表現主義</t>
+    <t>抽象表现主义</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Kinetic_art</t>
@@ -2153,7 +2126,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%97%8D%E9%A8%8E%E5%A3%AB</t>
   </si>
   <si>
-    <t>藍騎士</t>
+    <t>蓝骑士</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A1%A5%E7%A4%BE</t>
@@ -2165,7 +2138,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%8D%B3%E7%89%A9%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>新即物主義</t>
+    <t>新即物主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9E%83%E5%9C%BE%E7%AE%B1%E7%94%BB%E6%B4%BE</t>
@@ -2195,7 +2168,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B2%BE%E7%A2%BA%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>精確主義</t>
+    <t>精确主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%89%BA%E6%9C%AF%E8%BF%90%E5%8A%A8</t>
@@ -2243,7 +2216,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%85%A7%E7%9B%B8%E5%AF%AB%E5%AF%A6%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>照相寫實主義</t>
+    <t>照相写实主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%AA%E6%9D%A5%E4%B8%BB%E4%B9%89</t>
@@ -2267,7 +2240,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BC%A9%E6%B8%A6%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>漩渦主義</t>
+    <t>漩涡主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%B3%E4%B8%8A%E4%B8%BB%E4%B9%89</t>
@@ -2291,7 +2264,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A5%B5%E7%B0%A1%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>極簡主義</t>
+    <t>极简主义</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Nouveau_r%C3%A9alisme</t>
@@ -2315,7 +2288,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%91%E9%BB%9E%E6%B4%BE</t>
   </si>
   <si>
-    <t>斑點派</t>
+    <t>斑点派</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/COBRA_(avant-garde_movement)</t>
@@ -2399,7 +2372,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%A1%A8%E7%8F%BE%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>新表現主義</t>
+    <t>新表现主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%9F%E5%A4%96%E8%89%BA%E6%9C%AF</t>
@@ -2447,7 +2420,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E6%A6%82%E5%BF%B5%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>反概念主義</t>
+    <t>反概念主义</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Remodernism</t>
@@ -2519,7 +2492,7 @@
     <t>https://zh.wikipedia.org/wiki/Template_talk:%E6%96%87%E8%97%9D%E5%BE%A9%E8%88%88%E5%BA%95%E9%83%A8%E6%A8%A1%E6%9D%BF</t>
   </si>
   <si>
-    <t>Template talk-文藝復興底部模板</t>
+    <t>Template talk-文艺复兴底部模板</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BF%91%E4%BB%A3%E5%8F%B2</t>
@@ -2531,25 +2504,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%87%E8%89%BA%E5%A4%8D%E5%85%B4%E6%97%B6%E6%9C%9F%E7%9A%84%E9%9F%B3%E4%B9%90</t>
   </si>
   <si>
-    <t>文艺复兴时期的音乐</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BD%BC%E5%BE%97%E7%BE%85%C2%B7%E4%BD%A9%E9%AD%AF%E5%90%89%E8%AB%BE</t>
   </si>
   <si>
-    <t>彼得羅·佩魯吉諾</t>
+    <t>彼得罗·佩鲁吉诺</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E8%A5%BF%E8%8E%AB%C2%B7%E7%BE%85%E5%A1%9E%E5%88%A9</t>
   </si>
   <si>
-    <t>科西莫·羅塞利</t>
+    <t>科西莫·罗塞利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E4%B8%96%E7%B4%80</t>
-  </si>
-  <si>
-    <t>中世紀</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%B4%9B%E5%85%8B%E6%97%B6%E6%9C%9F</t>
@@ -8813,7 +8780,7 @@
         <v>395</v>
       </c>
       <c r="F204" t="s">
-        <v>396</v>
+        <v>114</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -8839,10 +8806,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
+        <v>396</v>
+      </c>
+      <c r="F205" t="s">
         <v>397</v>
-      </c>
-      <c r="F205" t="s">
-        <v>398</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -8868,10 +8835,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
+        <v>398</v>
+      </c>
+      <c r="F206" t="s">
         <v>399</v>
-      </c>
-      <c r="F206" t="s">
-        <v>400</v>
       </c>
       <c r="G206" t="n">
         <v>5</v>
@@ -8897,10 +8864,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
+        <v>400</v>
+      </c>
+      <c r="F207" t="s">
         <v>401</v>
-      </c>
-      <c r="F207" t="s">
-        <v>402</v>
       </c>
       <c r="G207" t="n">
         <v>15</v>
@@ -8926,10 +8893,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
+        <v>402</v>
+      </c>
+      <c r="F208" t="s">
         <v>403</v>
-      </c>
-      <c r="F208" t="s">
-        <v>404</v>
       </c>
       <c r="G208" t="n">
         <v>2</v>
@@ -8955,10 +8922,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
+        <v>404</v>
+      </c>
+      <c r="F209" t="s">
         <v>405</v>
-      </c>
-      <c r="F209" t="s">
-        <v>406</v>
       </c>
       <c r="G209" t="n">
         <v>8</v>
@@ -8984,10 +8951,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
+        <v>406</v>
+      </c>
+      <c r="F210" t="s">
         <v>407</v>
-      </c>
-      <c r="F210" t="s">
-        <v>408</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -9013,10 +8980,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
+        <v>408</v>
+      </c>
+      <c r="F211" t="s">
         <v>409</v>
-      </c>
-      <c r="F211" t="s">
-        <v>410</v>
       </c>
       <c r="G211" t="n">
         <v>2</v>
@@ -9042,10 +9009,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
+        <v>410</v>
+      </c>
+      <c r="F212" t="s">
         <v>411</v>
-      </c>
-      <c r="F212" t="s">
-        <v>412</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -9071,10 +9038,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
+        <v>412</v>
+      </c>
+      <c r="F213" t="s">
         <v>413</v>
-      </c>
-      <c r="F213" t="s">
-        <v>414</v>
       </c>
       <c r="G213" t="n">
         <v>5</v>
@@ -9100,10 +9067,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
+        <v>414</v>
+      </c>
+      <c r="F214" t="s">
         <v>415</v>
-      </c>
-      <c r="F214" t="s">
-        <v>416</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -9158,10 +9125,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
+        <v>416</v>
+      </c>
+      <c r="F216" t="s">
         <v>417</v>
-      </c>
-      <c r="F216" t="s">
-        <v>418</v>
       </c>
       <c r="G216" t="n">
         <v>2</v>
@@ -9187,10 +9154,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
+        <v>418</v>
+      </c>
+      <c r="F217" t="s">
         <v>419</v>
-      </c>
-      <c r="F217" t="s">
-        <v>420</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -9274,10 +9241,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
+        <v>420</v>
+      </c>
+      <c r="F220" t="s">
         <v>421</v>
-      </c>
-      <c r="F220" t="s">
-        <v>422</v>
       </c>
       <c r="G220" t="n">
         <v>2</v>
@@ -9303,10 +9270,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
+        <v>422</v>
+      </c>
+      <c r="F221" t="s">
         <v>423</v>
-      </c>
-      <c r="F221" t="s">
-        <v>424</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -9332,10 +9299,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
+        <v>424</v>
+      </c>
+      <c r="F222" t="s">
         <v>425</v>
-      </c>
-      <c r="F222" t="s">
-        <v>426</v>
       </c>
       <c r="G222" t="n">
         <v>2</v>
@@ -9361,10 +9328,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
+        <v>426</v>
+      </c>
+      <c r="F223" t="s">
         <v>427</v>
-      </c>
-      <c r="F223" t="s">
-        <v>428</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -9390,10 +9357,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
+        <v>428</v>
+      </c>
+      <c r="F224" t="s">
         <v>429</v>
-      </c>
-      <c r="F224" t="s">
-        <v>430</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -9419,10 +9386,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
+        <v>430</v>
+      </c>
+      <c r="F225" t="s">
         <v>431</v>
-      </c>
-      <c r="F225" t="s">
-        <v>432</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -9448,10 +9415,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
+        <v>432</v>
+      </c>
+      <c r="F226" t="s">
         <v>433</v>
-      </c>
-      <c r="F226" t="s">
-        <v>434</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -9477,10 +9444,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
+        <v>434</v>
+      </c>
+      <c r="F227" t="s">
         <v>435</v>
-      </c>
-      <c r="F227" t="s">
-        <v>436</v>
       </c>
       <c r="G227" t="n">
         <v>2</v>
@@ -9506,10 +9473,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
+        <v>436</v>
+      </c>
+      <c r="F228" t="s">
         <v>437</v>
-      </c>
-      <c r="F228" t="s">
-        <v>438</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -9535,10 +9502,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
+        <v>438</v>
+      </c>
+      <c r="F229" t="s">
         <v>439</v>
-      </c>
-      <c r="F229" t="s">
-        <v>440</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -9564,10 +9531,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
+        <v>440</v>
+      </c>
+      <c r="F230" t="s">
         <v>441</v>
-      </c>
-      <c r="F230" t="s">
-        <v>442</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -9593,10 +9560,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
+        <v>442</v>
+      </c>
+      <c r="F231" t="s">
         <v>443</v>
-      </c>
-      <c r="F231" t="s">
-        <v>444</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -9622,10 +9589,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
+        <v>444</v>
+      </c>
+      <c r="F232" t="s">
         <v>445</v>
-      </c>
-      <c r="F232" t="s">
-        <v>446</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -9651,10 +9618,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
+        <v>446</v>
+      </c>
+      <c r="F233" t="s">
         <v>447</v>
-      </c>
-      <c r="F233" t="s">
-        <v>448</v>
       </c>
       <c r="G233" t="n">
         <v>8</v>
@@ -9680,10 +9647,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
+        <v>448</v>
+      </c>
+      <c r="F234" t="s">
         <v>449</v>
-      </c>
-      <c r="F234" t="s">
-        <v>450</v>
       </c>
       <c r="G234" t="n">
         <v>5</v>
@@ -9709,10 +9676,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
+        <v>450</v>
+      </c>
+      <c r="F235" t="s">
         <v>451</v>
-      </c>
-      <c r="F235" t="s">
-        <v>452</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -9738,10 +9705,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
+        <v>452</v>
+      </c>
+      <c r="F236" t="s">
         <v>453</v>
-      </c>
-      <c r="F236" t="s">
-        <v>454</v>
       </c>
       <c r="G236" t="n">
         <v>5</v>
@@ -9767,10 +9734,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
+        <v>454</v>
+      </c>
+      <c r="F237" t="s">
         <v>455</v>
-      </c>
-      <c r="F237" t="s">
-        <v>456</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -9796,10 +9763,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
+        <v>456</v>
+      </c>
+      <c r="F238" t="s">
         <v>457</v>
-      </c>
-      <c r="F238" t="s">
-        <v>458</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -9825,10 +9792,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
+        <v>458</v>
+      </c>
+      <c r="F239" t="s">
         <v>459</v>
-      </c>
-      <c r="F239" t="s">
-        <v>460</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -9854,10 +9821,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
+        <v>460</v>
+      </c>
+      <c r="F240" t="s">
         <v>461</v>
-      </c>
-      <c r="F240" t="s">
-        <v>462</v>
       </c>
       <c r="G240" t="n">
         <v>4</v>
@@ -9883,10 +9850,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
+        <v>462</v>
+      </c>
+      <c r="F241" t="s">
         <v>463</v>
-      </c>
-      <c r="F241" t="s">
-        <v>464</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -9912,10 +9879,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
+        <v>464</v>
+      </c>
+      <c r="F242" t="s">
         <v>465</v>
-      </c>
-      <c r="F242" t="s">
-        <v>466</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -9941,10 +9908,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
+        <v>466</v>
+      </c>
+      <c r="F243" t="s">
         <v>467</v>
-      </c>
-      <c r="F243" t="s">
-        <v>468</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -9970,10 +9937,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
+        <v>468</v>
+      </c>
+      <c r="F244" t="s">
         <v>469</v>
-      </c>
-      <c r="F244" t="s">
-        <v>470</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -9999,10 +9966,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
+        <v>470</v>
+      </c>
+      <c r="F245" t="s">
         <v>471</v>
-      </c>
-      <c r="F245" t="s">
-        <v>472</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -10028,10 +9995,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
+        <v>472</v>
+      </c>
+      <c r="F246" t="s">
         <v>473</v>
-      </c>
-      <c r="F246" t="s">
-        <v>474</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
@@ -10057,10 +10024,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
+        <v>474</v>
+      </c>
+      <c r="F247" t="s">
         <v>475</v>
-      </c>
-      <c r="F247" t="s">
-        <v>476</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
@@ -10086,10 +10053,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
+        <v>476</v>
+      </c>
+      <c r="F248" t="s">
         <v>477</v>
-      </c>
-      <c r="F248" t="s">
-        <v>478</v>
       </c>
       <c r="G248" t="n">
         <v>1</v>
@@ -10115,10 +10082,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
+        <v>478</v>
+      </c>
+      <c r="F249" t="s">
         <v>479</v>
-      </c>
-      <c r="F249" t="s">
-        <v>480</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -10144,10 +10111,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
+        <v>480</v>
+      </c>
+      <c r="F250" t="s">
         <v>481</v>
-      </c>
-      <c r="F250" t="s">
-        <v>482</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
@@ -10173,10 +10140,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
+        <v>482</v>
+      </c>
+      <c r="F251" t="s">
         <v>483</v>
-      </c>
-      <c r="F251" t="s">
-        <v>484</v>
       </c>
       <c r="G251" t="n">
         <v>1</v>
@@ -10202,10 +10169,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
+        <v>484</v>
+      </c>
+      <c r="F252" t="s">
         <v>485</v>
-      </c>
-      <c r="F252" t="s">
-        <v>486</v>
       </c>
       <c r="G252" t="n">
         <v>1</v>
@@ -10231,10 +10198,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
+        <v>486</v>
+      </c>
+      <c r="F253" t="s">
         <v>487</v>
-      </c>
-      <c r="F253" t="s">
-        <v>488</v>
       </c>
       <c r="G253" t="n">
         <v>1</v>
@@ -10260,10 +10227,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
+        <v>488</v>
+      </c>
+      <c r="F254" t="s">
         <v>489</v>
-      </c>
-      <c r="F254" t="s">
-        <v>490</v>
       </c>
       <c r="G254" t="n">
         <v>2</v>
@@ -10289,10 +10256,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
+        <v>490</v>
+      </c>
+      <c r="F255" t="s">
         <v>491</v>
-      </c>
-      <c r="F255" t="s">
-        <v>492</v>
       </c>
       <c r="G255" t="n">
         <v>1</v>
@@ -10318,10 +10285,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
+        <v>492</v>
+      </c>
+      <c r="F256" t="s">
         <v>493</v>
-      </c>
-      <c r="F256" t="s">
-        <v>494</v>
       </c>
       <c r="G256" t="n">
         <v>1</v>
@@ -10347,10 +10314,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
+        <v>494</v>
+      </c>
+      <c r="F257" t="s">
         <v>495</v>
-      </c>
-      <c r="F257" t="s">
-        <v>496</v>
       </c>
       <c r="G257" t="n">
         <v>2</v>
@@ -10376,10 +10343,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
+        <v>496</v>
+      </c>
+      <c r="F258" t="s">
         <v>497</v>
-      </c>
-      <c r="F258" t="s">
-        <v>498</v>
       </c>
       <c r="G258" t="n">
         <v>1</v>
@@ -10405,10 +10372,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
+        <v>498</v>
+      </c>
+      <c r="F259" t="s">
         <v>499</v>
-      </c>
-      <c r="F259" t="s">
-        <v>500</v>
       </c>
       <c r="G259" t="n">
         <v>1</v>
@@ -10434,10 +10401,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
+        <v>500</v>
+      </c>
+      <c r="F260" t="s">
         <v>501</v>
-      </c>
-      <c r="F260" t="s">
-        <v>502</v>
       </c>
       <c r="G260" t="n">
         <v>1</v>
@@ -10463,10 +10430,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
+        <v>502</v>
+      </c>
+      <c r="F261" t="s">
         <v>503</v>
-      </c>
-      <c r="F261" t="s">
-        <v>504</v>
       </c>
       <c r="G261" t="n">
         <v>1</v>
@@ -10492,10 +10459,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
+        <v>504</v>
+      </c>
+      <c r="F262" t="s">
         <v>505</v>
-      </c>
-      <c r="F262" t="s">
-        <v>506</v>
       </c>
       <c r="G262" t="n">
         <v>1</v>
@@ -10521,10 +10488,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
+        <v>506</v>
+      </c>
+      <c r="F263" t="s">
         <v>507</v>
-      </c>
-      <c r="F263" t="s">
-        <v>508</v>
       </c>
       <c r="G263" t="n">
         <v>1</v>
@@ -10550,10 +10517,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
+        <v>508</v>
+      </c>
+      <c r="F264" t="s">
         <v>509</v>
-      </c>
-      <c r="F264" t="s">
-        <v>510</v>
       </c>
       <c r="G264" t="n">
         <v>1</v>
@@ -10579,10 +10546,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="F265" t="s">
-        <v>512</v>
+        <v>58</v>
       </c>
       <c r="G265" t="n">
         <v>1</v>
@@ -10637,10 +10604,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="F267" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="G267" t="n">
         <v>3</v>
@@ -10695,10 +10662,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
+        <v>406</v>
+      </c>
+      <c r="F269" t="s">
         <v>407</v>
-      </c>
-      <c r="F269" t="s">
-        <v>408</v>
       </c>
       <c r="G269" t="n">
         <v>2</v>
@@ -10811,10 +10778,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="F273" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="G273" t="n">
         <v>2</v>
@@ -10840,10 +10807,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="F274" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="G274" t="n">
         <v>1</v>
@@ -10869,10 +10836,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="F275" t="s">
-        <v>520</v>
+        <v>453</v>
       </c>
       <c r="G275" t="n">
         <v>1</v>
@@ -10898,10 +10865,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="F276" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="G276" t="n">
         <v>1</v>
@@ -10927,10 +10894,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="F277" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="G277" t="n">
         <v>1</v>
@@ -10956,10 +10923,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="F278" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="G278" t="n">
         <v>1</v>
@@ -10985,10 +10952,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="F279" t="s">
-        <v>528</v>
+        <v>399</v>
       </c>
       <c r="G279" t="n">
         <v>2</v>
@@ -11014,10 +10981,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="F280" t="s">
-        <v>530</v>
+        <v>405</v>
       </c>
       <c r="G280" t="n">
         <v>3</v>
@@ -11043,10 +11010,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="F281" t="s">
-        <v>532</v>
+        <v>433</v>
       </c>
       <c r="G281" t="n">
         <v>1</v>
@@ -11072,10 +11039,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="F282" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="G282" t="n">
         <v>1</v>
@@ -11101,10 +11068,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="F283" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="G283" t="n">
         <v>1</v>
@@ -11130,10 +11097,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="F284" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="G284" t="n">
         <v>1</v>
@@ -11159,10 +11126,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="F285" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="G285" t="n">
         <v>1</v>
@@ -11188,10 +11155,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="F286" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="G286" t="n">
         <v>1</v>
@@ -11217,10 +11184,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="F287" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="G287" t="n">
         <v>1</v>
@@ -11246,10 +11213,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="F288" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="G288" t="n">
         <v>1</v>
@@ -11275,10 +11242,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="F289" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="G289" t="n">
         <v>1</v>
@@ -11304,10 +11271,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="F290" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="G290" t="n">
         <v>2</v>
@@ -11333,10 +11300,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="F291" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="G291" t="n">
         <v>1</v>
@@ -11362,10 +11329,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="F292" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="G292" t="n">
         <v>1</v>
@@ -11391,10 +11358,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="F293" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="G293" t="n">
         <v>1</v>
@@ -11420,10 +11387,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="F294" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="G294" t="n">
         <v>1</v>
@@ -11449,10 +11416,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="F295" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="G295" t="n">
         <v>2</v>
@@ -11478,10 +11445,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="F296" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="G296" t="n">
         <v>1</v>
@@ -11507,10 +11474,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="F297" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="G297" t="n">
         <v>1</v>
@@ -11536,10 +11503,10 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="F298" t="s">
-        <v>566</v>
+        <v>423</v>
       </c>
       <c r="G298" t="n">
         <v>1</v>
@@ -11565,10 +11532,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
-        <v>567</v>
+        <v>560</v>
       </c>
       <c r="F299" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="G299" t="n">
         <v>5</v>
@@ -11594,10 +11561,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="F300" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="G300" t="n">
         <v>7</v>
@@ -11623,10 +11590,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="F301" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="G301" t="n">
         <v>2</v>
@@ -11652,10 +11619,10 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="F302" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="G302" t="n">
         <v>1</v>
@@ -11710,10 +11677,10 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
-        <v>575</v>
+        <v>568</v>
       </c>
       <c r="F304" t="s">
-        <v>576</v>
+        <v>569</v>
       </c>
       <c r="G304" t="n">
         <v>1</v>
@@ -11768,10 +11735,10 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
       <c r="F306" t="s">
-        <v>578</v>
+        <v>274</v>
       </c>
       <c r="G306" t="n">
         <v>2</v>
@@ -11797,10 +11764,10 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
-        <v>579</v>
+        <v>571</v>
       </c>
       <c r="F307" t="s">
-        <v>580</v>
+        <v>288</v>
       </c>
       <c r="G307" t="n">
         <v>1</v>
@@ -11855,10 +11822,10 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
       <c r="F309" t="s">
-        <v>582</v>
+        <v>573</v>
       </c>
       <c r="G309" t="n">
         <v>1</v>
@@ -11884,10 +11851,10 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
-        <v>583</v>
+        <v>574</v>
       </c>
       <c r="F310" t="s">
-        <v>584</v>
+        <v>575</v>
       </c>
       <c r="G310" t="n">
         <v>1</v>
@@ -11913,10 +11880,10 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
-        <v>585</v>
+        <v>576</v>
       </c>
       <c r="F311" t="s">
-        <v>586</v>
+        <v>577</v>
       </c>
       <c r="G311" t="n">
         <v>1</v>
@@ -11942,10 +11909,10 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
-        <v>587</v>
+        <v>578</v>
       </c>
       <c r="F312" t="s">
-        <v>588</v>
+        <v>579</v>
       </c>
       <c r="G312" t="n">
         <v>1</v>
@@ -11971,10 +11938,10 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
-        <v>589</v>
+        <v>580</v>
       </c>
       <c r="F313" t="s">
-        <v>590</v>
+        <v>581</v>
       </c>
       <c r="G313" t="n">
         <v>1</v>
@@ -12000,10 +11967,10 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
-        <v>591</v>
+        <v>582</v>
       </c>
       <c r="F314" t="s">
-        <v>592</v>
+        <v>583</v>
       </c>
       <c r="G314" t="n">
         <v>1</v>
@@ -12029,10 +11996,10 @@
         <v>314</v>
       </c>
       <c r="E315" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
       <c r="F315" t="s">
-        <v>594</v>
+        <v>585</v>
       </c>
       <c r="G315" t="n">
         <v>5</v>
@@ -12058,10 +12025,10 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
-        <v>595</v>
+        <v>586</v>
       </c>
       <c r="F316" t="s">
-        <v>596</v>
+        <v>587</v>
       </c>
       <c r="G316" t="n">
         <v>1</v>
@@ -12116,10 +12083,10 @@
         <v>317</v>
       </c>
       <c r="E318" t="s">
-        <v>597</v>
+        <v>588</v>
       </c>
       <c r="F318" t="s">
-        <v>598</v>
+        <v>589</v>
       </c>
       <c r="G318" t="n">
         <v>1</v>
@@ -12145,10 +12112,10 @@
         <v>318</v>
       </c>
       <c r="E319" t="s">
-        <v>599</v>
+        <v>590</v>
       </c>
       <c r="F319" t="s">
-        <v>600</v>
+        <v>591</v>
       </c>
       <c r="G319" t="n">
         <v>1</v>
@@ -12174,10 +12141,10 @@
         <v>319</v>
       </c>
       <c r="E320" t="s">
-        <v>601</v>
+        <v>592</v>
       </c>
       <c r="F320" t="s">
-        <v>602</v>
+        <v>593</v>
       </c>
       <c r="G320" t="n">
         <v>1</v>
@@ -12203,10 +12170,10 @@
         <v>320</v>
       </c>
       <c r="E321" t="s">
-        <v>603</v>
+        <v>594</v>
       </c>
       <c r="F321" t="s">
-        <v>604</v>
+        <v>595</v>
       </c>
       <c r="G321" t="n">
         <v>2</v>
@@ -12232,10 +12199,10 @@
         <v>321</v>
       </c>
       <c r="E322" t="s">
-        <v>605</v>
+        <v>596</v>
       </c>
       <c r="F322" t="s">
-        <v>606</v>
+        <v>597</v>
       </c>
       <c r="G322" t="n">
         <v>1</v>
@@ -12261,10 +12228,10 @@
         <v>322</v>
       </c>
       <c r="E323" t="s">
-        <v>607</v>
+        <v>598</v>
       </c>
       <c r="F323" t="s">
-        <v>608</v>
+        <v>599</v>
       </c>
       <c r="G323" t="n">
         <v>1</v>
@@ -12290,10 +12257,10 @@
         <v>323</v>
       </c>
       <c r="E324" t="s">
-        <v>609</v>
+        <v>600</v>
       </c>
       <c r="F324" t="s">
-        <v>610</v>
+        <v>601</v>
       </c>
       <c r="G324" t="n">
         <v>1</v>
@@ -12319,10 +12286,10 @@
         <v>324</v>
       </c>
       <c r="E325" t="s">
-        <v>611</v>
+        <v>602</v>
       </c>
       <c r="F325" t="s">
-        <v>612</v>
+        <v>603</v>
       </c>
       <c r="G325" t="n">
         <v>2</v>
@@ -12348,10 +12315,10 @@
         <v>325</v>
       </c>
       <c r="E326" t="s">
-        <v>613</v>
+        <v>604</v>
       </c>
       <c r="F326" t="s">
-        <v>614</v>
+        <v>605</v>
       </c>
       <c r="G326" t="n">
         <v>3</v>
@@ -12377,10 +12344,10 @@
         <v>326</v>
       </c>
       <c r="E327" t="s">
-        <v>615</v>
+        <v>606</v>
       </c>
       <c r="F327" t="s">
-        <v>616</v>
+        <v>607</v>
       </c>
       <c r="G327" t="n">
         <v>1</v>
@@ -12406,10 +12373,10 @@
         <v>327</v>
       </c>
       <c r="E328" t="s">
-        <v>617</v>
+        <v>608</v>
       </c>
       <c r="F328" t="s">
-        <v>618</v>
+        <v>609</v>
       </c>
       <c r="G328" t="n">
         <v>4</v>
@@ -12435,10 +12402,10 @@
         <v>328</v>
       </c>
       <c r="E329" t="s">
-        <v>619</v>
+        <v>610</v>
       </c>
       <c r="F329" t="s">
-        <v>620</v>
+        <v>611</v>
       </c>
       <c r="G329" t="n">
         <v>1</v>
@@ -12464,10 +12431,10 @@
         <v>329</v>
       </c>
       <c r="E330" t="s">
-        <v>621</v>
+        <v>612</v>
       </c>
       <c r="F330" t="s">
-        <v>622</v>
+        <v>613</v>
       </c>
       <c r="G330" t="n">
         <v>1</v>
@@ -12493,10 +12460,10 @@
         <v>330</v>
       </c>
       <c r="E331" t="s">
-        <v>623</v>
+        <v>614</v>
       </c>
       <c r="F331" t="s">
-        <v>624</v>
+        <v>615</v>
       </c>
       <c r="G331" t="n">
         <v>2</v>
@@ -12522,10 +12489,10 @@
         <v>331</v>
       </c>
       <c r="E332" t="s">
-        <v>625</v>
+        <v>616</v>
       </c>
       <c r="F332" t="s">
-        <v>626</v>
+        <v>617</v>
       </c>
       <c r="G332" t="n">
         <v>1</v>
@@ -12551,10 +12518,10 @@
         <v>332</v>
       </c>
       <c r="E333" t="s">
+        <v>442</v>
+      </c>
+      <c r="F333" t="s">
         <v>443</v>
-      </c>
-      <c r="F333" t="s">
-        <v>444</v>
       </c>
       <c r="G333" t="n">
         <v>113</v>
@@ -12580,10 +12547,10 @@
         <v>333</v>
       </c>
       <c r="E334" t="s">
-        <v>627</v>
+        <v>618</v>
       </c>
       <c r="F334" t="s">
-        <v>628</v>
+        <v>619</v>
       </c>
       <c r="G334" t="n">
         <v>1</v>
@@ -12609,10 +12576,10 @@
         <v>334</v>
       </c>
       <c r="E335" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="F335" t="s">
-        <v>630</v>
+        <v>621</v>
       </c>
       <c r="G335" t="n">
         <v>2</v>
@@ -12638,10 +12605,10 @@
         <v>335</v>
       </c>
       <c r="E336" t="s">
-        <v>631</v>
+        <v>622</v>
       </c>
       <c r="F336" t="s">
-        <v>632</v>
+        <v>623</v>
       </c>
       <c r="G336" t="n">
         <v>1</v>
@@ -12667,10 +12634,10 @@
         <v>336</v>
       </c>
       <c r="E337" t="s">
-        <v>633</v>
+        <v>624</v>
       </c>
       <c r="F337" t="s">
-        <v>634</v>
+        <v>625</v>
       </c>
       <c r="G337" t="n">
         <v>2</v>
@@ -12696,10 +12663,10 @@
         <v>337</v>
       </c>
       <c r="E338" t="s">
-        <v>635</v>
+        <v>626</v>
       </c>
       <c r="F338" t="s">
-        <v>636</v>
+        <v>627</v>
       </c>
       <c r="G338" t="n">
         <v>1</v>
@@ -12725,10 +12692,10 @@
         <v>338</v>
       </c>
       <c r="E339" t="s">
-        <v>637</v>
+        <v>628</v>
       </c>
       <c r="F339" t="s">
-        <v>638</v>
+        <v>629</v>
       </c>
       <c r="G339" t="n">
         <v>2</v>
@@ -12754,10 +12721,10 @@
         <v>339</v>
       </c>
       <c r="E340" t="s">
-        <v>639</v>
+        <v>630</v>
       </c>
       <c r="F340" t="s">
-        <v>640</v>
+        <v>631</v>
       </c>
       <c r="G340" t="n">
         <v>1</v>
@@ -12783,10 +12750,10 @@
         <v>340</v>
       </c>
       <c r="E341" t="s">
-        <v>641</v>
+        <v>632</v>
       </c>
       <c r="F341" t="s">
-        <v>642</v>
+        <v>633</v>
       </c>
       <c r="G341" t="n">
         <v>1</v>
@@ -12812,10 +12779,10 @@
         <v>341</v>
       </c>
       <c r="E342" t="s">
-        <v>643</v>
+        <v>634</v>
       </c>
       <c r="F342" t="s">
-        <v>644</v>
+        <v>635</v>
       </c>
       <c r="G342" t="n">
         <v>1</v>
@@ -12841,10 +12808,10 @@
         <v>342</v>
       </c>
       <c r="E343" t="s">
-        <v>645</v>
+        <v>636</v>
       </c>
       <c r="F343" t="s">
-        <v>646</v>
+        <v>637</v>
       </c>
       <c r="G343" t="n">
         <v>1</v>
@@ -12870,10 +12837,10 @@
         <v>343</v>
       </c>
       <c r="E344" t="s">
-        <v>647</v>
+        <v>638</v>
       </c>
       <c r="F344" t="s">
-        <v>648</v>
+        <v>639</v>
       </c>
       <c r="G344" t="n">
         <v>1</v>
@@ -12899,10 +12866,10 @@
         <v>344</v>
       </c>
       <c r="E345" t="s">
-        <v>649</v>
+        <v>640</v>
       </c>
       <c r="F345" t="s">
-        <v>650</v>
+        <v>641</v>
       </c>
       <c r="G345" t="n">
         <v>1</v>
@@ -12928,10 +12895,10 @@
         <v>345</v>
       </c>
       <c r="E346" t="s">
-        <v>651</v>
+        <v>642</v>
       </c>
       <c r="F346" t="s">
-        <v>652</v>
+        <v>643</v>
       </c>
       <c r="G346" t="n">
         <v>1</v>
@@ -12957,10 +12924,10 @@
         <v>346</v>
       </c>
       <c r="E347" t="s">
-        <v>653</v>
+        <v>644</v>
       </c>
       <c r="F347" t="s">
-        <v>654</v>
+        <v>645</v>
       </c>
       <c r="G347" t="n">
         <v>1</v>
@@ -12986,10 +12953,10 @@
         <v>347</v>
       </c>
       <c r="E348" t="s">
-        <v>655</v>
+        <v>646</v>
       </c>
       <c r="F348" t="s">
-        <v>656</v>
+        <v>647</v>
       </c>
       <c r="G348" t="n">
         <v>1</v>
@@ -13015,10 +12982,10 @@
         <v>348</v>
       </c>
       <c r="E349" t="s">
-        <v>657</v>
+        <v>648</v>
       </c>
       <c r="F349" t="s">
-        <v>658</v>
+        <v>649</v>
       </c>
       <c r="G349" t="n">
         <v>1</v>
@@ -13044,10 +13011,10 @@
         <v>349</v>
       </c>
       <c r="E350" t="s">
-        <v>659</v>
+        <v>650</v>
       </c>
       <c r="F350" t="s">
-        <v>660</v>
+        <v>651</v>
       </c>
       <c r="G350" t="n">
         <v>4</v>
@@ -13073,10 +13040,10 @@
         <v>350</v>
       </c>
       <c r="E351" t="s">
-        <v>661</v>
+        <v>652</v>
       </c>
       <c r="F351" t="s">
-        <v>662</v>
+        <v>653</v>
       </c>
       <c r="G351" t="n">
         <v>1</v>
@@ -13102,10 +13069,10 @@
         <v>351</v>
       </c>
       <c r="E352" t="s">
-        <v>663</v>
+        <v>654</v>
       </c>
       <c r="F352" t="s">
-        <v>664</v>
+        <v>655</v>
       </c>
       <c r="G352" t="n">
         <v>1</v>
@@ -13131,10 +13098,10 @@
         <v>352</v>
       </c>
       <c r="E353" t="s">
-        <v>665</v>
+        <v>656</v>
       </c>
       <c r="F353" t="s">
-        <v>666</v>
+        <v>657</v>
       </c>
       <c r="G353" t="n">
         <v>1</v>
@@ -13160,10 +13127,10 @@
         <v>353</v>
       </c>
       <c r="E354" t="s">
-        <v>667</v>
+        <v>658</v>
       </c>
       <c r="F354" t="s">
-        <v>668</v>
+        <v>659</v>
       </c>
       <c r="G354" t="n">
         <v>3</v>
@@ -13189,10 +13156,10 @@
         <v>354</v>
       </c>
       <c r="E355" t="s">
-        <v>669</v>
+        <v>660</v>
       </c>
       <c r="F355" t="s">
-        <v>670</v>
+        <v>661</v>
       </c>
       <c r="G355" t="n">
         <v>1</v>
@@ -13218,10 +13185,10 @@
         <v>355</v>
       </c>
       <c r="E356" t="s">
-        <v>671</v>
+        <v>662</v>
       </c>
       <c r="F356" t="s">
-        <v>672</v>
+        <v>663</v>
       </c>
       <c r="G356" t="n">
         <v>1</v>
@@ -13247,10 +13214,10 @@
         <v>356</v>
       </c>
       <c r="E357" t="s">
-        <v>673</v>
+        <v>664</v>
       </c>
       <c r="F357" t="s">
-        <v>674</v>
+        <v>665</v>
       </c>
       <c r="G357" t="n">
         <v>1</v>
@@ -13276,10 +13243,10 @@
         <v>357</v>
       </c>
       <c r="E358" t="s">
-        <v>675</v>
+        <v>666</v>
       </c>
       <c r="F358" t="s">
-        <v>676</v>
+        <v>667</v>
       </c>
       <c r="G358" t="n">
         <v>1</v>
@@ -13305,10 +13272,10 @@
         <v>358</v>
       </c>
       <c r="E359" t="s">
-        <v>677</v>
+        <v>668</v>
       </c>
       <c r="F359" t="s">
-        <v>678</v>
+        <v>669</v>
       </c>
       <c r="G359" t="n">
         <v>1</v>
@@ -13334,10 +13301,10 @@
         <v>359</v>
       </c>
       <c r="E360" t="s">
-        <v>679</v>
+        <v>670</v>
       </c>
       <c r="F360" t="s">
-        <v>680</v>
+        <v>671</v>
       </c>
       <c r="G360" t="n">
         <v>1</v>
@@ -13363,10 +13330,10 @@
         <v>360</v>
       </c>
       <c r="E361" t="s">
-        <v>681</v>
+        <v>672</v>
       </c>
       <c r="F361" t="s">
-        <v>682</v>
+        <v>673</v>
       </c>
       <c r="G361" t="n">
         <v>1</v>
@@ -13392,10 +13359,10 @@
         <v>361</v>
       </c>
       <c r="E362" t="s">
-        <v>683</v>
+        <v>674</v>
       </c>
       <c r="F362" t="s">
-        <v>684</v>
+        <v>675</v>
       </c>
       <c r="G362" t="n">
         <v>1</v>
@@ -13421,10 +13388,10 @@
         <v>362</v>
       </c>
       <c r="E363" t="s">
-        <v>685</v>
+        <v>676</v>
       </c>
       <c r="F363" t="s">
-        <v>686</v>
+        <v>677</v>
       </c>
       <c r="G363" t="n">
         <v>1</v>
@@ -13450,10 +13417,10 @@
         <v>363</v>
       </c>
       <c r="E364" t="s">
-        <v>687</v>
+        <v>678</v>
       </c>
       <c r="F364" t="s">
-        <v>688</v>
+        <v>679</v>
       </c>
       <c r="G364" t="n">
         <v>1</v>
@@ -13479,10 +13446,10 @@
         <v>364</v>
       </c>
       <c r="E365" t="s">
-        <v>689</v>
+        <v>680</v>
       </c>
       <c r="F365" t="s">
-        <v>690</v>
+        <v>681</v>
       </c>
       <c r="G365" t="n">
         <v>1</v>
@@ -13508,10 +13475,10 @@
         <v>365</v>
       </c>
       <c r="E366" t="s">
-        <v>691</v>
+        <v>682</v>
       </c>
       <c r="F366" t="s">
-        <v>692</v>
+        <v>683</v>
       </c>
       <c r="G366" t="n">
         <v>1</v>
@@ -13537,10 +13504,10 @@
         <v>366</v>
       </c>
       <c r="E367" t="s">
-        <v>693</v>
+        <v>684</v>
       </c>
       <c r="F367" t="s">
-        <v>694</v>
+        <v>685</v>
       </c>
       <c r="G367" t="n">
         <v>1</v>
@@ -13566,10 +13533,10 @@
         <v>367</v>
       </c>
       <c r="E368" t="s">
-        <v>695</v>
+        <v>686</v>
       </c>
       <c r="F368" t="s">
-        <v>696</v>
+        <v>687</v>
       </c>
       <c r="G368" t="n">
         <v>1</v>
@@ -13595,10 +13562,10 @@
         <v>368</v>
       </c>
       <c r="E369" t="s">
-        <v>697</v>
+        <v>688</v>
       </c>
       <c r="F369" t="s">
-        <v>698</v>
+        <v>689</v>
       </c>
       <c r="G369" t="n">
         <v>1</v>
@@ -13624,10 +13591,10 @@
         <v>369</v>
       </c>
       <c r="E370" t="s">
-        <v>699</v>
+        <v>690</v>
       </c>
       <c r="F370" t="s">
-        <v>700</v>
+        <v>691</v>
       </c>
       <c r="G370" t="n">
         <v>1</v>
@@ -13653,10 +13620,10 @@
         <v>370</v>
       </c>
       <c r="E371" t="s">
-        <v>701</v>
+        <v>692</v>
       </c>
       <c r="F371" t="s">
-        <v>702</v>
+        <v>693</v>
       </c>
       <c r="G371" t="n">
         <v>3</v>
@@ -13682,10 +13649,10 @@
         <v>371</v>
       </c>
       <c r="E372" t="s">
-        <v>703</v>
+        <v>694</v>
       </c>
       <c r="F372" t="s">
-        <v>704</v>
+        <v>695</v>
       </c>
       <c r="G372" t="n">
         <v>1</v>
@@ -13711,10 +13678,10 @@
         <v>372</v>
       </c>
       <c r="E373" t="s">
-        <v>705</v>
+        <v>696</v>
       </c>
       <c r="F373" t="s">
-        <v>706</v>
+        <v>697</v>
       </c>
       <c r="G373" t="n">
         <v>1</v>
@@ -13740,10 +13707,10 @@
         <v>373</v>
       </c>
       <c r="E374" t="s">
-        <v>707</v>
+        <v>698</v>
       </c>
       <c r="F374" t="s">
-        <v>708</v>
+        <v>699</v>
       </c>
       <c r="G374" t="n">
         <v>1</v>
@@ -13769,10 +13736,10 @@
         <v>374</v>
       </c>
       <c r="E375" t="s">
-        <v>709</v>
+        <v>700</v>
       </c>
       <c r="F375" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
       <c r="G375" t="n">
         <v>1</v>
@@ -13798,10 +13765,10 @@
         <v>375</v>
       </c>
       <c r="E376" t="s">
-        <v>711</v>
+        <v>702</v>
       </c>
       <c r="F376" t="s">
-        <v>712</v>
+        <v>703</v>
       </c>
       <c r="G376" t="n">
         <v>1</v>
@@ -13827,10 +13794,10 @@
         <v>376</v>
       </c>
       <c r="E377" t="s">
-        <v>713</v>
+        <v>704</v>
       </c>
       <c r="F377" t="s">
-        <v>714</v>
+        <v>705</v>
       </c>
       <c r="G377" t="n">
         <v>1</v>
@@ -13856,10 +13823,10 @@
         <v>377</v>
       </c>
       <c r="E378" t="s">
-        <v>715</v>
+        <v>706</v>
       </c>
       <c r="F378" t="s">
-        <v>716</v>
+        <v>707</v>
       </c>
       <c r="G378" t="n">
         <v>1</v>
@@ -13885,10 +13852,10 @@
         <v>378</v>
       </c>
       <c r="E379" t="s">
-        <v>717</v>
+        <v>708</v>
       </c>
       <c r="F379" t="s">
-        <v>718</v>
+        <v>709</v>
       </c>
       <c r="G379" t="n">
         <v>1</v>
@@ -13914,10 +13881,10 @@
         <v>379</v>
       </c>
       <c r="E380" t="s">
-        <v>719</v>
+        <v>710</v>
       </c>
       <c r="F380" t="s">
-        <v>720</v>
+        <v>711</v>
       </c>
       <c r="G380" t="n">
         <v>2</v>
@@ -13943,10 +13910,10 @@
         <v>380</v>
       </c>
       <c r="E381" t="s">
-        <v>721</v>
+        <v>712</v>
       </c>
       <c r="F381" t="s">
-        <v>722</v>
+        <v>713</v>
       </c>
       <c r="G381" t="n">
         <v>2</v>
@@ -13972,10 +13939,10 @@
         <v>381</v>
       </c>
       <c r="E382" t="s">
-        <v>723</v>
+        <v>714</v>
       </c>
       <c r="F382" t="s">
-        <v>724</v>
+        <v>715</v>
       </c>
       <c r="G382" t="n">
         <v>1</v>
@@ -14001,10 +13968,10 @@
         <v>382</v>
       </c>
       <c r="E383" t="s">
-        <v>725</v>
+        <v>716</v>
       </c>
       <c r="F383" t="s">
-        <v>726</v>
+        <v>717</v>
       </c>
       <c r="G383" t="n">
         <v>1</v>
@@ -14030,10 +13997,10 @@
         <v>383</v>
       </c>
       <c r="E384" t="s">
-        <v>727</v>
+        <v>718</v>
       </c>
       <c r="F384" t="s">
-        <v>728</v>
+        <v>719</v>
       </c>
       <c r="G384" t="n">
         <v>1</v>
@@ -14059,10 +14026,10 @@
         <v>384</v>
       </c>
       <c r="E385" t="s">
-        <v>729</v>
+        <v>720</v>
       </c>
       <c r="F385" t="s">
-        <v>730</v>
+        <v>721</v>
       </c>
       <c r="G385" t="n">
         <v>1</v>
@@ -14088,10 +14055,10 @@
         <v>385</v>
       </c>
       <c r="E386" t="s">
-        <v>731</v>
+        <v>722</v>
       </c>
       <c r="F386" t="s">
-        <v>732</v>
+        <v>723</v>
       </c>
       <c r="G386" t="n">
         <v>1</v>
@@ -14117,10 +14084,10 @@
         <v>386</v>
       </c>
       <c r="E387" t="s">
-        <v>733</v>
+        <v>724</v>
       </c>
       <c r="F387" t="s">
-        <v>734</v>
+        <v>725</v>
       </c>
       <c r="G387" t="n">
         <v>1</v>
@@ -14146,10 +14113,10 @@
         <v>387</v>
       </c>
       <c r="E388" t="s">
-        <v>735</v>
+        <v>726</v>
       </c>
       <c r="F388" t="s">
-        <v>736</v>
+        <v>727</v>
       </c>
       <c r="G388" t="n">
         <v>1</v>
@@ -14175,10 +14142,10 @@
         <v>388</v>
       </c>
       <c r="E389" t="s">
-        <v>737</v>
+        <v>728</v>
       </c>
       <c r="F389" t="s">
-        <v>738</v>
+        <v>729</v>
       </c>
       <c r="G389" t="n">
         <v>1</v>
@@ -14204,10 +14171,10 @@
         <v>389</v>
       </c>
       <c r="E390" t="s">
-        <v>739</v>
+        <v>730</v>
       </c>
       <c r="F390" t="s">
-        <v>740</v>
+        <v>731</v>
       </c>
       <c r="G390" t="n">
         <v>2</v>
@@ -14233,10 +14200,10 @@
         <v>390</v>
       </c>
       <c r="E391" t="s">
-        <v>741</v>
+        <v>732</v>
       </c>
       <c r="F391" t="s">
-        <v>742</v>
+        <v>733</v>
       </c>
       <c r="G391" t="n">
         <v>1</v>
@@ -14262,10 +14229,10 @@
         <v>391</v>
       </c>
       <c r="E392" t="s">
-        <v>743</v>
+        <v>734</v>
       </c>
       <c r="F392" t="s">
-        <v>744</v>
+        <v>735</v>
       </c>
       <c r="G392" t="n">
         <v>2</v>
@@ -14291,10 +14258,10 @@
         <v>392</v>
       </c>
       <c r="E393" t="s">
-        <v>745</v>
+        <v>736</v>
       </c>
       <c r="F393" t="s">
-        <v>746</v>
+        <v>737</v>
       </c>
       <c r="G393" t="n">
         <v>1</v>
@@ -14320,10 +14287,10 @@
         <v>393</v>
       </c>
       <c r="E394" t="s">
-        <v>747</v>
+        <v>738</v>
       </c>
       <c r="F394" t="s">
-        <v>748</v>
+        <v>739</v>
       </c>
       <c r="G394" t="n">
         <v>1</v>
@@ -14349,10 +14316,10 @@
         <v>394</v>
       </c>
       <c r="E395" t="s">
-        <v>749</v>
+        <v>740</v>
       </c>
       <c r="F395" t="s">
-        <v>750</v>
+        <v>741</v>
       </c>
       <c r="G395" t="n">
         <v>1</v>
@@ -14378,10 +14345,10 @@
         <v>395</v>
       </c>
       <c r="E396" t="s">
-        <v>751</v>
+        <v>742</v>
       </c>
       <c r="F396" t="s">
-        <v>752</v>
+        <v>743</v>
       </c>
       <c r="G396" t="n">
         <v>1</v>
@@ -14407,10 +14374,10 @@
         <v>396</v>
       </c>
       <c r="E397" t="s">
-        <v>753</v>
+        <v>744</v>
       </c>
       <c r="F397" t="s">
-        <v>754</v>
+        <v>745</v>
       </c>
       <c r="G397" t="n">
         <v>1</v>
@@ -14436,10 +14403,10 @@
         <v>397</v>
       </c>
       <c r="E398" t="s">
-        <v>755</v>
+        <v>746</v>
       </c>
       <c r="F398" t="s">
-        <v>756</v>
+        <v>747</v>
       </c>
       <c r="G398" t="n">
         <v>1</v>
@@ -14465,10 +14432,10 @@
         <v>398</v>
       </c>
       <c r="E399" t="s">
-        <v>757</v>
+        <v>748</v>
       </c>
       <c r="F399" t="s">
-        <v>758</v>
+        <v>749</v>
       </c>
       <c r="G399" t="n">
         <v>1</v>
@@ -14494,10 +14461,10 @@
         <v>399</v>
       </c>
       <c r="E400" t="s">
-        <v>759</v>
+        <v>750</v>
       </c>
       <c r="F400" t="s">
-        <v>760</v>
+        <v>751</v>
       </c>
       <c r="G400" t="n">
         <v>1</v>
@@ -14523,10 +14490,10 @@
         <v>400</v>
       </c>
       <c r="E401" t="s">
-        <v>761</v>
+        <v>752</v>
       </c>
       <c r="F401" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
       <c r="G401" t="n">
         <v>1</v>
@@ -14552,10 +14519,10 @@
         <v>401</v>
       </c>
       <c r="E402" t="s">
-        <v>763</v>
+        <v>754</v>
       </c>
       <c r="F402" t="s">
-        <v>764</v>
+        <v>755</v>
       </c>
       <c r="G402" t="n">
         <v>1</v>
@@ -14581,10 +14548,10 @@
         <v>402</v>
       </c>
       <c r="E403" t="s">
-        <v>765</v>
+        <v>756</v>
       </c>
       <c r="F403" t="s">
-        <v>766</v>
+        <v>757</v>
       </c>
       <c r="G403" t="n">
         <v>1</v>
@@ -14610,10 +14577,10 @@
         <v>403</v>
       </c>
       <c r="E404" t="s">
-        <v>767</v>
+        <v>758</v>
       </c>
       <c r="F404" t="s">
-        <v>768</v>
+        <v>759</v>
       </c>
       <c r="G404" t="n">
         <v>1</v>
@@ -14639,10 +14606,10 @@
         <v>404</v>
       </c>
       <c r="E405" t="s">
-        <v>769</v>
+        <v>760</v>
       </c>
       <c r="F405" t="s">
-        <v>770</v>
+        <v>761</v>
       </c>
       <c r="G405" t="n">
         <v>1</v>
@@ -14668,10 +14635,10 @@
         <v>405</v>
       </c>
       <c r="E406" t="s">
-        <v>771</v>
+        <v>762</v>
       </c>
       <c r="F406" t="s">
-        <v>772</v>
+        <v>763</v>
       </c>
       <c r="G406" t="n">
         <v>1</v>
@@ -14697,10 +14664,10 @@
         <v>406</v>
       </c>
       <c r="E407" t="s">
-        <v>773</v>
+        <v>764</v>
       </c>
       <c r="F407" t="s">
-        <v>774</v>
+        <v>765</v>
       </c>
       <c r="G407" t="n">
         <v>1</v>
@@ -14726,10 +14693,10 @@
         <v>407</v>
       </c>
       <c r="E408" t="s">
-        <v>775</v>
+        <v>766</v>
       </c>
       <c r="F408" t="s">
-        <v>776</v>
+        <v>767</v>
       </c>
       <c r="G408" t="n">
         <v>1</v>
@@ -14755,10 +14722,10 @@
         <v>408</v>
       </c>
       <c r="E409" t="s">
-        <v>777</v>
+        <v>768</v>
       </c>
       <c r="F409" t="s">
-        <v>778</v>
+        <v>769</v>
       </c>
       <c r="G409" t="n">
         <v>1</v>
@@ -14784,10 +14751,10 @@
         <v>409</v>
       </c>
       <c r="E410" t="s">
-        <v>779</v>
+        <v>770</v>
       </c>
       <c r="F410" t="s">
-        <v>780</v>
+        <v>771</v>
       </c>
       <c r="G410" t="n">
         <v>1</v>
@@ -14813,10 +14780,10 @@
         <v>410</v>
       </c>
       <c r="E411" t="s">
-        <v>781</v>
+        <v>772</v>
       </c>
       <c r="F411" t="s">
-        <v>782</v>
+        <v>773</v>
       </c>
       <c r="G411" t="n">
         <v>1</v>
@@ -14842,10 +14809,10 @@
         <v>411</v>
       </c>
       <c r="E412" t="s">
-        <v>783</v>
+        <v>774</v>
       </c>
       <c r="F412" t="s">
-        <v>784</v>
+        <v>775</v>
       </c>
       <c r="G412" t="n">
         <v>1</v>
@@ -14871,10 +14838,10 @@
         <v>412</v>
       </c>
       <c r="E413" t="s">
-        <v>785</v>
+        <v>776</v>
       </c>
       <c r="F413" t="s">
-        <v>786</v>
+        <v>777</v>
       </c>
       <c r="G413" t="n">
         <v>1</v>
@@ -14900,10 +14867,10 @@
         <v>413</v>
       </c>
       <c r="E414" t="s">
-        <v>787</v>
+        <v>778</v>
       </c>
       <c r="F414" t="s">
-        <v>788</v>
+        <v>779</v>
       </c>
       <c r="G414" t="n">
         <v>1</v>
@@ -14929,10 +14896,10 @@
         <v>414</v>
       </c>
       <c r="E415" t="s">
-        <v>789</v>
+        <v>780</v>
       </c>
       <c r="F415" t="s">
-        <v>790</v>
+        <v>781</v>
       </c>
       <c r="G415" t="n">
         <v>1</v>
@@ -14958,10 +14925,10 @@
         <v>415</v>
       </c>
       <c r="E416" t="s">
-        <v>791</v>
+        <v>782</v>
       </c>
       <c r="F416" t="s">
-        <v>792</v>
+        <v>783</v>
       </c>
       <c r="G416" t="n">
         <v>1</v>
@@ -14987,10 +14954,10 @@
         <v>416</v>
       </c>
       <c r="E417" t="s">
-        <v>793</v>
+        <v>784</v>
       </c>
       <c r="F417" t="s">
-        <v>794</v>
+        <v>785</v>
       </c>
       <c r="G417" t="n">
         <v>1</v>
@@ -15016,10 +14983,10 @@
         <v>417</v>
       </c>
       <c r="E418" t="s">
-        <v>719</v>
+        <v>710</v>
       </c>
       <c r="F418" t="s">
-        <v>720</v>
+        <v>711</v>
       </c>
       <c r="G418" t="n">
         <v>1</v>
@@ -15045,10 +15012,10 @@
         <v>418</v>
       </c>
       <c r="E419" t="s">
-        <v>795</v>
+        <v>786</v>
       </c>
       <c r="F419" t="s">
-        <v>796</v>
+        <v>787</v>
       </c>
       <c r="G419" t="n">
         <v>1</v>
@@ -15074,10 +15041,10 @@
         <v>419</v>
       </c>
       <c r="E420" t="s">
-        <v>797</v>
+        <v>788</v>
       </c>
       <c r="F420" t="s">
-        <v>798</v>
+        <v>789</v>
       </c>
       <c r="G420" t="n">
         <v>1</v>
@@ -15103,10 +15070,10 @@
         <v>420</v>
       </c>
       <c r="E421" t="s">
-        <v>799</v>
+        <v>790</v>
       </c>
       <c r="F421" t="s">
-        <v>800</v>
+        <v>791</v>
       </c>
       <c r="G421" t="n">
         <v>1</v>
@@ -15132,10 +15099,10 @@
         <v>421</v>
       </c>
       <c r="E422" t="s">
-        <v>801</v>
+        <v>792</v>
       </c>
       <c r="F422" t="s">
-        <v>802</v>
+        <v>793</v>
       </c>
       <c r="G422" t="n">
         <v>1</v>
@@ -15161,10 +15128,10 @@
         <v>422</v>
       </c>
       <c r="E423" t="s">
-        <v>803</v>
+        <v>794</v>
       </c>
       <c r="F423" t="s">
-        <v>804</v>
+        <v>795</v>
       </c>
       <c r="G423" t="n">
         <v>1</v>
@@ -15190,10 +15157,10 @@
         <v>423</v>
       </c>
       <c r="E424" t="s">
-        <v>805</v>
+        <v>796</v>
       </c>
       <c r="F424" t="s">
-        <v>806</v>
+        <v>797</v>
       </c>
       <c r="G424" t="n">
         <v>1</v>
@@ -15219,10 +15186,10 @@
         <v>424</v>
       </c>
       <c r="E425" t="s">
-        <v>807</v>
+        <v>798</v>
       </c>
       <c r="F425" t="s">
-        <v>808</v>
+        <v>799</v>
       </c>
       <c r="G425" t="n">
         <v>1</v>
@@ -15248,10 +15215,10 @@
         <v>425</v>
       </c>
       <c r="E426" t="s">
-        <v>809</v>
+        <v>800</v>
       </c>
       <c r="F426" t="s">
-        <v>810</v>
+        <v>801</v>
       </c>
       <c r="G426" t="n">
         <v>1</v>
@@ -15277,10 +15244,10 @@
         <v>426</v>
       </c>
       <c r="E427" t="s">
-        <v>811</v>
+        <v>802</v>
       </c>
       <c r="F427" t="s">
-        <v>812</v>
+        <v>803</v>
       </c>
       <c r="G427" t="n">
         <v>1</v>
@@ -15306,10 +15273,10 @@
         <v>427</v>
       </c>
       <c r="E428" t="s">
-        <v>813</v>
+        <v>804</v>
       </c>
       <c r="F428" t="s">
-        <v>814</v>
+        <v>805</v>
       </c>
       <c r="G428" t="n">
         <v>1</v>
@@ -15335,10 +15302,10 @@
         <v>428</v>
       </c>
       <c r="E429" t="s">
-        <v>815</v>
+        <v>806</v>
       </c>
       <c r="F429" t="s">
-        <v>816</v>
+        <v>807</v>
       </c>
       <c r="G429" t="n">
         <v>1</v>
@@ -15364,10 +15331,10 @@
         <v>429</v>
       </c>
       <c r="E430" t="s">
-        <v>817</v>
+        <v>808</v>
       </c>
       <c r="F430" t="s">
-        <v>818</v>
+        <v>809</v>
       </c>
       <c r="G430" t="n">
         <v>1</v>
@@ -15393,10 +15360,10 @@
         <v>430</v>
       </c>
       <c r="E431" t="s">
-        <v>819</v>
+        <v>810</v>
       </c>
       <c r="F431" t="s">
-        <v>820</v>
+        <v>811</v>
       </c>
       <c r="G431" t="n">
         <v>1</v>
@@ -15422,10 +15389,10 @@
         <v>431</v>
       </c>
       <c r="E432" t="s">
-        <v>821</v>
+        <v>812</v>
       </c>
       <c r="F432" t="s">
-        <v>822</v>
+        <v>813</v>
       </c>
       <c r="G432" t="n">
         <v>1</v>
@@ -15451,10 +15418,10 @@
         <v>432</v>
       </c>
       <c r="E433" t="s">
-        <v>823</v>
+        <v>814</v>
       </c>
       <c r="F433" t="s">
-        <v>824</v>
+        <v>815</v>
       </c>
       <c r="G433" t="n">
         <v>1</v>
@@ -15480,10 +15447,10 @@
         <v>433</v>
       </c>
       <c r="E434" t="s">
-        <v>825</v>
+        <v>816</v>
       </c>
       <c r="F434" t="s">
-        <v>826</v>
+        <v>817</v>
       </c>
       <c r="G434" t="n">
         <v>2</v>
@@ -15509,10 +15476,10 @@
         <v>434</v>
       </c>
       <c r="E435" t="s">
-        <v>827</v>
+        <v>818</v>
       </c>
       <c r="F435" t="s">
-        <v>828</v>
+        <v>819</v>
       </c>
       <c r="G435" t="n">
         <v>1</v>
@@ -15538,10 +15505,10 @@
         <v>435</v>
       </c>
       <c r="E436" t="s">
-        <v>829</v>
+        <v>820</v>
       </c>
       <c r="F436" t="s">
-        <v>830</v>
+        <v>821</v>
       </c>
       <c r="G436" t="n">
         <v>1</v>
@@ -15567,10 +15534,10 @@
         <v>436</v>
       </c>
       <c r="E437" t="s">
-        <v>831</v>
+        <v>822</v>
       </c>
       <c r="F437" t="s">
-        <v>832</v>
+        <v>823</v>
       </c>
       <c r="G437" t="n">
         <v>1</v>
@@ -15596,10 +15563,10 @@
         <v>437</v>
       </c>
       <c r="E438" t="s">
-        <v>833</v>
+        <v>824</v>
       </c>
       <c r="F438" t="s">
-        <v>834</v>
+        <v>825</v>
       </c>
       <c r="G438" t="n">
         <v>17</v>
@@ -15625,10 +15592,10 @@
         <v>438</v>
       </c>
       <c r="E439" t="s">
-        <v>835</v>
+        <v>826</v>
       </c>
       <c r="F439" t="s">
-        <v>836</v>
+        <v>827</v>
       </c>
       <c r="G439" t="n">
         <v>1</v>
@@ -15683,10 +15650,10 @@
         <v>440</v>
       </c>
       <c r="E441" t="s">
-        <v>837</v>
+        <v>828</v>
       </c>
       <c r="F441" t="s">
-        <v>838</v>
+        <v>66</v>
       </c>
       <c r="G441" t="n">
         <v>11</v>
@@ -15770,10 +15737,10 @@
         <v>443</v>
       </c>
       <c r="E444" t="s">
+        <v>406</v>
+      </c>
+      <c r="F444" t="s">
         <v>407</v>
-      </c>
-      <c r="F444" t="s">
-        <v>408</v>
       </c>
       <c r="G444" t="n">
         <v>27</v>
@@ -15799,10 +15766,10 @@
         <v>444</v>
       </c>
       <c r="E445" t="s">
-        <v>839</v>
+        <v>829</v>
       </c>
       <c r="F445" t="s">
-        <v>840</v>
+        <v>830</v>
       </c>
       <c r="G445" t="n">
         <v>1</v>
@@ -15828,10 +15795,10 @@
         <v>445</v>
       </c>
       <c r="E446" t="s">
-        <v>841</v>
+        <v>831</v>
       </c>
       <c r="F446" t="s">
-        <v>842</v>
+        <v>832</v>
       </c>
       <c r="G446" t="n">
         <v>1</v>
@@ -15857,10 +15824,10 @@
         <v>446</v>
       </c>
       <c r="E447" t="s">
-        <v>843</v>
+        <v>833</v>
       </c>
       <c r="F447" t="s">
-        <v>844</v>
+        <v>32</v>
       </c>
       <c r="G447" t="n">
         <v>2</v>
@@ -15886,10 +15853,10 @@
         <v>447</v>
       </c>
       <c r="E448" t="s">
-        <v>845</v>
+        <v>834</v>
       </c>
       <c r="F448" t="s">
-        <v>846</v>
+        <v>835</v>
       </c>
       <c r="G448" t="n">
         <v>1</v>

--- a/xlsx/文艺复兴_intext.xlsx
+++ b/xlsx/文艺复兴_intext.xlsx
@@ -29,7 +29,7 @@
     <t>12世纪的文艺复兴</t>
   </si>
   <si>
-    <t>政策_政策_政治學_文艺复兴</t>
+    <t>体育运动_体育运动_国际奥林匹克委员会_文艺复兴</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E6%B4%9B%E6%9E%97%E6%96%87%E8%89%BA%E5%A4%8D%E5%85%B4</t>
@@ -2336,10 +2336,10 @@
     <t>国际主义设计风格</t>
   </si>
   <si>
-    <t>https://en.wikipedia.org/wiki/Fluxus</t>
-  </si>
-  <si>
-    <t>en-Fluxus</t>
+    <t>https://zh.wikipedia.org/wiki/%E6%BF%80%E6%B5%AA%E6%B4%BE</t>
+  </si>
+  <si>
+    <t>激浪派</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Lettrism</t>
@@ -12557,7 +12557,7 @@
         <v>444</v>
       </c>
       <c r="G333" t="n">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H333" t="s">
         <v>4</v>
